--- a/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_per_day_fixed_period_9_sine_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_per_day_fixed_period_9_sine_0_.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[49.842597114744066, 50.08147366397013]</t>
+          <t>[49.84255592331836, 50.08151485539584]</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[49.92198167995473, 50.090354651383755]</t>
+          <t>[49.922024497018036, 50.09031183432045]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -685,7 +685,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[49.87690206288817, 50.07066624810506]</t>
+          <t>[49.875664421903, 50.07190388909024]</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -713,7 +713,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[49.933025855914956, 50.067442806190876]</t>
+          <t>[49.93310901406607, 50.06735964803976]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -771,7 +771,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[49.85071381111812, 50.11475011988616]</t>
+          <t>[49.84815503663116, 50.11730889437312]</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -799,7 +799,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[49.90742540993192, 50.083780717114166]</t>
+          <t>[49.90745821332454, 50.083747913721545]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -857,7 +857,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[49.863974392933464, 50.131843421050284]</t>
+          <t>[49.863437809908945, 50.132380004074804]</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -885,7 +885,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[49.90534430077191, 50.07546507087765]</t>
+          <t>[49.905415160065935, 50.07539421158362]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -943,7 +943,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[49.862071404908825, 50.090263371150435]</t>
+          <t>[49.86346195963935, 50.08887281641991]</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -971,7 +971,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[49.914309030971275, 50.05478325813811]</t>
+          <t>[49.91429305903233, 50.05479923007705]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[49.813708393322635, 50.09452338688295]</t>
+          <t>[49.813372116277925, 50.09485966392766]</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[49.895297405612276, 50.0647863128437]</t>
+          <t>[49.89530848932748, 50.06477522912849]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[49.91322845064397, 50.21184153800007]</t>
+          <t>[49.91017641595767, 50.21489357268637]</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[49.90632652043408, 50.085084495839084]</t>
+          <t>[49.906433922457744, 50.08497709381542]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[49.881904582523944, 50.16906275439223]</t>
+          <t>[49.88282377623477, 50.1681435606814]</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[49.908233755549695, 50.071897335350705]</t>
+          <t>[49.908197333595965, 50.071933757304436]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[49.908698691143165, 50.20579458504309]</t>
+          <t>[49.904133902890706, 50.210359373295546]</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[49.87793037983411, 50.05036323119437]</t>
+          <t>[49.8778570178721, 50.05043659315638]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[49.94494155055328, 50.21764519612515]</t>
+          <t>[49.945908435898794, 50.216678310779635]</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[49.85113062495764, 50.009265433142424]</t>
+          <t>[49.85110373343791, 50.009292324662155]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[49.92292162066912, 50.23528776214376]</t>
+          <t>[49.9212890774517, 50.23692030536118]</t>
         </is>
       </c>
       <c r="N12" t="n">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[49.93487619631009, 50.11118515496329]</t>
+          <t>[49.934717231320136, 50.111344119953245]</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[49.84746786124159, 50.14062522661664]</t>
+          <t>[49.848070252155644, 50.14002283570259]</t>
         </is>
       </c>
       <c r="N13" t="n">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[49.95317813678387, 50.11252384123174]</t>
+          <t>[49.953130445935464, 50.112571532080146]</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[49.888189531031514, 50.18153586782573]</t>
+          <t>[49.88296223923192, 50.18676315962532]</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[49.919175941409534, 50.07923478891789]</t>
+          <t>[49.919139607286134, 50.07927112304129]</t>
         </is>
       </c>
       <c r="V14" t="n">

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_per_day_fixed_period_9_sine_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_per_day_fixed_period_9_sine_0_.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[49.84255592331836, 50.08151485539584]</t>
+          <t>[49.842209751696714, 50.08186102701748]</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[49.922024497018036, 50.09031183432045]</t>
+          <t>[49.92207092459715, 50.09026540674134]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -685,7 +685,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[49.875664421903, 50.07190388909024]</t>
+          <t>[49.874810094160516, 50.07275821683272]</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -713,7 +713,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[49.93310901406607, 50.06735964803976]</t>
+          <t>[49.9331724641812, 50.067296197924634]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -771,7 +771,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[49.84815503663116, 50.11730889437312]</t>
+          <t>[49.850007409238614, 50.115456521765665]</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -799,7 +799,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[49.90745821332454, 50.083747913721545]</t>
+          <t>[49.90736260570626, 50.08384352133982]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -857,7 +857,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[49.863437809908945, 50.132380004074804]</t>
+          <t>[49.86500586504832, 50.13081194893543]</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -885,7 +885,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[49.905415160065935, 50.07539421158362]</t>
+          <t>[49.90546909215463, 50.075340279494924]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -943,7 +943,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[49.86346195963935, 50.08887281641991]</t>
+          <t>[49.86175698865006, 50.0905777874092]</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -971,7 +971,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[49.91429305903233, 50.05479923007705]</t>
+          <t>[49.91421440420807, 50.054877884901316]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[49.813372116277925, 50.09485966392766]</t>
+          <t>[49.81385880125789, 50.094372978947696]</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[49.89530848932748, 50.06477522912849]</t>
+          <t>[49.89540135123933, 50.06468236721665]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[49.91017641595767, 50.21489357268637]</t>
+          <t>[49.91159970694941, 50.21347028169463]</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[49.906433922457744, 50.08497709381542]</t>
+          <t>[49.90617456881236, 50.0852364474608]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[49.88282377623477, 50.1681435606814]</t>
+          <t>[49.88247031788748, 50.16849701902869]</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[49.908197333595965, 50.071933757304436]</t>
+          <t>[49.90813554868731, 50.07199554221309]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[49.904133902890706, 50.210359373295546]</t>
+          <t>[49.902982746846675, 50.21151052933958]</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[49.8778570178721, 50.05043659315638]</t>
+          <t>[49.877938364774494, 50.050355246253986]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[49.945908435898794, 50.216678310779635]</t>
+          <t>[49.94991831023817, 50.21266843644026]</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[49.85110373343791, 50.009292324662155]</t>
+          <t>[49.85116432918837, 50.00923172891169]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[49.9212890774517, 50.23692030536118]</t>
+          <t>[49.92052135433042, 50.23768802848247]</t>
         </is>
       </c>
       <c r="N12" t="n">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[49.934717231320136, 50.111344119953245]</t>
+          <t>[49.93475665479289, 50.11130469648049]</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[49.848070252155644, 50.14002283570259]</t>
+          <t>[49.84890709452247, 50.139185993335765]</t>
         </is>
       </c>
       <c r="N13" t="n">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[49.953130445935464, 50.112571532080146]</t>
+          <t>[49.953258842002434, 50.11244313601318]</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[49.88296223923192, 50.18676315962532]</t>
+          <t>[49.88473068784946, 50.18499471100778]</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[49.919139607286134, 50.07927112304129]</t>
+          <t>[49.91925122022822, 50.0791595100992]</t>
         </is>
       </c>
       <c r="V14" t="n">
